--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed5/result_data_KNN.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.442</v>
+        <v>-12.339</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.566000000000001</v>
+        <v>4.935</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.016</v>
+        <v>-12.609</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.846000000000001</v>
+        <v>-7.606999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.334</v>
+        <v>-12.604</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -880,10 +880,10 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.869999999999999</v>
+        <v>6.408000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.276</v>
+        <v>-12.327</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.238</v>
+        <v>-11.63</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.204000000000001</v>
+        <v>8.620000000000001</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,13 +964,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.982</v>
+        <v>5.547</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.492000000000002</v>
+        <v>-7.802</v>
       </c>
     </row>
     <row r="39">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.06</v>
+        <v>-12.221</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.18</v>
+        <v>6.248</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.652000000000001</v>
+        <v>-7.780999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1188,10 +1188,10 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.648000000000001</v>
+        <v>5.401</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.182</v>
+        <v>-13.017</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.763</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.923999999999999</v>
+        <v>5.526</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.616</v>
+        <v>5.305</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.741999999999999</v>
+        <v>5.697</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.49</v>
+        <v>-8.285</v>
       </c>
     </row>
     <row r="79">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.366</v>
+        <v>-8.061000000000002</v>
       </c>
     </row>
     <row r="84">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.172000000000001</v>
+        <v>-8.450000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.362</v>
+        <v>-8.354000000000003</v>
       </c>
     </row>
     <row r="87">
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.25</v>
+        <v>5.296000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.458</v>
+        <v>-7.202000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.608</v>
+        <v>-11.479</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1818,10 +1818,10 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.964</v>
+        <v>5.524000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.308</v>
+        <v>-12.039</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.11</v>
+        <v>-12.303</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1880,7 +1880,7 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.132000000000001</v>
+        <v>-8.309000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>8.754000000000001</v>
+        <v>8.032</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
